--- a/_OUTPUT/CPL.xlsx
+++ b/_OUTPUT/CPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angrypig\Angrypig\Dev\LoRa_Transmitter\LoRa_Shield\_OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90A26432-8256-4051-993F-CC604D48BE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C8166161-A643-420C-AFB1-421B0EFFF704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1270,7 @@
         <v>49.56</v>
       </c>
       <c r="D9">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1304,7 +1304,7 @@
         <v>17.27</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1321,7 +1321,7 @@
         <v>21.84</v>
       </c>
       <c r="D12">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -1406,7 +1406,7 @@
         <v>58.67</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>

--- a/_OUTPUT/CPL.xlsx
+++ b/_OUTPUT/CPL.xlsx
@@ -1,57 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angrypig\Angrypig\Dev\LoRa_Transmitter\LoRa_Shield\_OUTPUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angrypig\Dev\LoRa_Transmitter\LoRa_Shield\_OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441DE7F-92E1-4DDC-ADD6-20BE2F25C260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E1B182D-451C-4BAA-8418-FD8F6B403F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6212EED7-2A0D-4BF3-A426-20E38B1F41F6}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CPL_latest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="CPL" localSheetId="0">Sheet1!$A$2:$D$31</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F134B95E-36D2-44A6-8FCA-EDC9EC2DB0A7}" name="CPL" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="949" sourceFile="C:\Users\angrypig\Angrypig\Dev\LoRa_Transmitter\LoRa_Shield\_OUTPUT\CPL.txt" space="1" consecutive="1">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>C1</t>
   </si>
@@ -86,6 +55,9 @@
     <t>D2</t>
   </si>
   <si>
+    <t>IC1</t>
+  </si>
+  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -141,67 +113,345 @@
   </si>
   <si>
     <t>Designator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mid X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mid Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,19 +459,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,10 +669,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CPL" connectionId="1" xr16:uid="{3379FF8C-58B3-48D5-A696-57270B11A49D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,39 +967,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D778776-7D0D-4D6A-A9B5-EF59AF2B9F3A}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,10 +1028,10 @@
         <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -616,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -627,16 +1056,16 @@
         <v>14.48</v>
       </c>
       <c r="C5">
-        <v>16.510000000000002</v>
+        <v>17.02</v>
       </c>
       <c r="D5">
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -650,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -667,10 +1096,10 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -684,10 +1113,10 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -698,16 +1127,13 @@
         <v>49.56</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -721,10 +1147,10 @@
         <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -738,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -752,52 +1178,49 @@
         <v>21.84</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>8.89</v>
+      </c>
+      <c r="C13">
+        <v>53.34</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>21.34</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>44.7</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>180</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>8.89</v>
-      </c>
-      <c r="C14">
-        <v>53.34</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
       <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>44.45</v>
@@ -809,15 +1232,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>34.29</v>
+        <v>32.51</v>
       </c>
       <c r="C16">
         <v>7.37</v>
@@ -826,12 +1249,12 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>54.36</v>
@@ -840,18 +1263,15 @@
         <v>58.42</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>52.58</v>
@@ -863,63 +1283,63 @@
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>19.559999999999999</v>
       </c>
       <c r="C19">
-        <v>16.510000000000002</v>
+        <v>17.02</v>
       </c>
       <c r="D19">
         <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>14.48</v>
       </c>
       <c r="C20">
-        <v>19.05</v>
+        <v>19.3</v>
       </c>
       <c r="D20">
         <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>19.559999999999999</v>
       </c>
       <c r="C21">
-        <v>19.05</v>
+        <v>19.3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>17.53</v>
@@ -931,12 +1351,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>17.53</v>
@@ -948,12 +1368,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>45.72</v>
@@ -965,12 +1385,12 @@
         <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>45.72</v>
@@ -982,12 +1402,12 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>45.72</v>
@@ -999,12 +1419,12 @@
         <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>45.72</v>
@@ -1016,12 +1436,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>45.72</v>
@@ -1033,12 +1453,12 @@
         <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>45.72</v>
@@ -1050,12 +1470,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>43.43</v>
@@ -1064,18 +1484,15 @@
         <v>25.91</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>39.369999999999997</v>
@@ -1087,11 +1504,10 @@
         <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>